--- a/[1분반]2014136141_송원섭_마프_재료구매신청서.xlsx
+++ b/[1분반]2014136141_송원섭_마프_재료구매신청서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\songwonseop\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2014136141\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,10 @@
   <si>
     <t>26,400
 (부가세미포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈가 다릅니다. 실습실에서 사용하는거 이거 두배인데 그래도 사용할거면 따로 빼주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +230,16 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +250,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -339,15 +356,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +383,15 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,31 +401,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -408,20 +440,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -1071,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1087,66 +1129,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="21">
         <v>2014136141</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -1172,667 +1214,670 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>13200</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>36000</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5">
+      <c r="A26" s="8">
         <v>3</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="8">
         <v>990</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="6"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="9"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="6"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="6"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="6"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="6"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="7"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="7"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5">
+      <c r="A33" s="8">
         <v>4</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="8">
         <v>1</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="9"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="9"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="9"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="5">
+      <c r="A40" s="8">
         <v>5</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="11">
         <v>1210</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="11">
         <v>1210</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="5"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="7"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="5">
+      <c r="A48" s="8">
         <v>6</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="11">
         <v>3500</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="5">
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="8">
         <v>7</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="11">
         <v>1000</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="8">
         <v>8</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="11">
         <v>8000</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="5">
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="24">
         <v>8</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="25">
         <v>12100</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="24">
         <v>1</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="6"/>
+      <c r="G62" s="24"/>
+      <c r="H62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="6"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="6"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="6"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="6"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="7"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2"/>
@@ -1849,6 +1894,50 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="F16:F25"/>
+    <mergeCell ref="E16:E25"/>
+    <mergeCell ref="D16:D25"/>
+    <mergeCell ref="C16:C25"/>
+    <mergeCell ref="B16:B25"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="F40:F47"/>
+    <mergeCell ref="E40:E47"/>
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="G40:G47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="F48:F54"/>
+    <mergeCell ref="G48:G54"/>
     <mergeCell ref="F55:F61"/>
     <mergeCell ref="G55:G61"/>
     <mergeCell ref="A62:A69"/>
@@ -1863,50 +1952,6 @@
     <mergeCell ref="C55:C61"/>
     <mergeCell ref="D55:D61"/>
     <mergeCell ref="E55:E61"/>
-    <mergeCell ref="G40:G47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="F48:F54"/>
-    <mergeCell ref="G48:G54"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="F33:F39"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="F40:F47"/>
-    <mergeCell ref="E40:E47"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="F7:F15"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="E7:E15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="F16:F25"/>
-    <mergeCell ref="E16:E25"/>
-    <mergeCell ref="D16:D25"/>
-    <mergeCell ref="C16:C25"/>
-    <mergeCell ref="B16:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/[1분반]2014136141_송원섭_마프_재료구매신청서.xlsx
+++ b/[1분반]2014136141_송원섭_마프_재료구매신청서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2014136141\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\songwonseop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,13 +131,6 @@
   <si>
     <t>소형 진동모터 직경 10mm 두께 3mm (Vibration motor)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">브레드보드 대형 1660핀 불투명 (Solderless Breadboard - 1660 Tie Point (ZY-204)) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.mechasolution.com/shop/goods/goods_view.php?goodsno=5870&amp;category=058001</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -163,11 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12100
-(학교지원예상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>990
 (학교지원예상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,7 +171,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사이즈가 다릅니다. 실습실에서 사용하는거 이거 두배인데 그래도 사용할거면 따로 빼주세요.</t>
+    <t>브래드보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(학교지원예상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,16 +222,8 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,11 +234,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -356,18 +335,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,30 +416,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="보통" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -672,50 +626,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2408464</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7225393" y="14355535"/>
-          <a:ext cx="2394857" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>40821</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
@@ -734,7 +644,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -778,7 +688,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -822,7 +732,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1113,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1227,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>21</v>
@@ -1310,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="11">
         <v>36000</v>
@@ -1319,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -1421,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>16</v>
@@ -1647,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C48" s="11">
         <v>3500</v>
@@ -1656,14 +1566,14 @@
         <v>1</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:7">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="12"/>
@@ -1672,7 +1582,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:7">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="12"/>
@@ -1681,7 +1591,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:7">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="12"/>
@@ -1690,7 +1600,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:7">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="12"/>
@@ -1699,7 +1609,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:7">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="12"/>
@@ -1708,7 +1618,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:7">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="13"/>
@@ -1717,7 +1627,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:7">
       <c r="A55" s="8">
         <v>7</v>
       </c>
@@ -1738,7 +1648,7 @@
       </c>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:7">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="12"/>
@@ -1747,7 +1657,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5" customHeight="1">
+    <row r="57" spans="1:7" ht="16.5" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="12"/>
@@ -1756,7 +1666,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:7">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="12"/>
@@ -1765,7 +1675,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:7">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="12"/>
@@ -1774,7 +1684,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:7">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="12"/>
@@ -1783,7 +1693,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:7">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="13"/>
@@ -1792,92 +1702,85 @@
       <c r="F61" s="7"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="24">
+    <row r="62" spans="1:7">
+      <c r="A62" s="8">
         <v>8</v>
       </c>
-      <c r="B62" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="25">
-        <v>12100</v>
-      </c>
-      <c r="D62" s="24">
+      <c r="B62" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="8">
         <v>1</v>
       </c>
-      <c r="E62" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" s="24"/>
-      <c r="H62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
+      <c r="E62" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2"/>
@@ -1887,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="E70" s="4">
-        <v>89410</v>
+        <v>77310</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>

--- a/[1분반]2014136141_송원섭_마프_재료구매신청서.xlsx
+++ b/[1분반]2014136141_송원섭_마프_재료구매신청서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,22 @@
   </si>
   <si>
     <t>(학교지원예상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mechasolution.com/shop/goods/goods_view.php?goodsno=774&amp;category=057001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백셀 / 토시바 9v 건전지, 배터리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mechasolution.com/shop/goods/goods_view.php?goodsno=33&amp;category=061005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9V 배럴잭 어댑터 / 9V 건전지 전용 / Barrel Jack Adapter </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,6 +375,15 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,14 +393,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,18 +411,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,15 +430,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,8 +673,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7252607" y="12885964"/>
-          <a:ext cx="2408464" cy="1401536"/>
+          <a:off x="7559968" y="11524449"/>
+          <a:ext cx="2402062" cy="1463169"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -747,6 +763,94 @@
         <a:xfrm>
           <a:off x="7225393" y="4912177"/>
           <a:ext cx="2435678" cy="2000252"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2420470</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7541558" y="13077265"/>
+          <a:ext cx="2398059" cy="1389529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2218765</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7687235" y="14802972"/>
+          <a:ext cx="2050677" cy="1400734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78:F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1039,66 +1143,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="17">
         <v>2014136141</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -1124,703 +1228,882 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="14">
         <v>13200</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="7"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="14">
         <v>36000</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="6"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="6"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="8">
+      <c r="A26" s="5">
         <v>3</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <v>990</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="5">
         <v>1</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="9"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="6"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="9"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="9"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="9"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="9"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="10"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="10"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="8">
+      <c r="A33" s="5">
         <v>4</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="5">
         <v>1</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="6"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="6"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="6"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="6"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="6"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="7"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="8">
+      <c r="A40" s="5">
         <v>5</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="14">
         <v>1210</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="5">
         <v>1</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="14">
         <v>1210</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="8"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="9"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="9"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="9"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="9"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="9"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="9"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="10"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="8">
+      <c r="A48" s="5">
         <v>6</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="14">
         <v>3500</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="5">
         <v>1</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="8"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="9"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="9"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="9"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="9"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="9"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="10"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="8">
+      <c r="A55" s="5">
         <v>7</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="14">
         <v>1000</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="5">
         <v>8</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="14">
         <v>8000</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="8"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="9"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="9"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="9"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="9"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="9"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="10"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="8">
+      <c r="A62" s="5">
         <v>8</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="14">
+        <v>1100</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2</v>
+      </c>
+      <c r="E62" s="14">
+        <v>2200</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="5">
+        <v>9</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="14">
+        <v>440</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2</v>
+      </c>
+      <c r="E70" s="14">
+        <v>880</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="5">
+        <v>10</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="8">
+      <c r="C78" s="14"/>
+      <c r="D78" s="5">
         <v>1</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E78" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="10"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="1" t="s">
+      <c r="F78" s="8"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="4">
-        <v>77310</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="E86" s="4">
+        <v>80390</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="F16:F25"/>
-    <mergeCell ref="E16:E25"/>
-    <mergeCell ref="D16:D25"/>
-    <mergeCell ref="C16:C25"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="F7:F15"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="E7:E15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="F26:F32"/>
+  <mergeCells count="72">
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="G62:G69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="G70:G77"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="G55:G61"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="F78:F85"/>
+    <mergeCell ref="G78:G85"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="G40:G47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="F48:F54"/>
+    <mergeCell ref="G48:G54"/>
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="A48:A54"/>
@@ -1834,27 +2117,30 @@
     <mergeCell ref="D40:D47"/>
     <mergeCell ref="C40:C47"/>
     <mergeCell ref="B40:B47"/>
-    <mergeCell ref="G40:G47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="F48:F54"/>
-    <mergeCell ref="G48:G54"/>
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="G55:G61"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="G62:G69"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="F16:F25"/>
+    <mergeCell ref="E16:E25"/>
+    <mergeCell ref="D16:D25"/>
+    <mergeCell ref="C16:C25"/>
+    <mergeCell ref="B16:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1865,9 +2151,11 @@
     <hyperlink ref="F55" r:id="rId5"/>
     <hyperlink ref="F16" r:id="rId6"/>
     <hyperlink ref="F48" r:id="rId7"/>
+    <hyperlink ref="F62" r:id="rId8"/>
+    <hyperlink ref="F70" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/[1분반]2014136141_송원섭_마프_재료구매신청서.xlsx
+++ b/[1분반]2014136141_송원섭_마프_재료구매신청서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,14 +168,6 @@
   <si>
     <t>26,400
 (부가세미포함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브래드보드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(학교지원예상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -375,6 +367,15 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,31 +385,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -418,18 +422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78:F85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1143,66 +1135,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="21">
         <v>2014136141</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -1228,882 +1220,791 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>13200</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>36000</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5">
+      <c r="A26" s="8">
         <v>3</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="8">
         <v>990</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="6"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="9"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="6"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="6"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="6"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="6"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="7"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="7"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5">
+      <c r="A33" s="8">
         <v>4</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="8">
         <v>1</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="9"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="9"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="9"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="5">
+      <c r="A40" s="8">
         <v>5</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="11">
         <v>1210</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="11">
         <v>1210</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="5"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="7"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="5">
+      <c r="A48" s="8">
         <v>6</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="11">
         <v>3500</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="5"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="6"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="6"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="6"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="6"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="6"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="7"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="5">
+      <c r="A55" s="8">
         <v>7</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="11">
         <v>1000</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="8">
         <v>8</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="11">
         <v>8000</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="5"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="6"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="6"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="6"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="6"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="6"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="7"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="5">
+      <c r="A62" s="8">
         <v>8</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="11">
+        <v>1100</v>
+      </c>
+      <c r="D62" s="8">
+        <v>2</v>
+      </c>
+      <c r="E62" s="11">
+        <v>2200</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="8">
+        <v>9</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="14">
-        <v>1100</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="C70" s="11">
+        <v>440</v>
+      </c>
+      <c r="D70" s="8">
         <v>2</v>
       </c>
-      <c r="E62" s="14">
-        <v>2200</v>
-      </c>
-      <c r="F62" s="8" t="s">
+      <c r="E70" s="11">
+        <v>880</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="5">
-        <v>9</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="14">
-        <v>440</v>
-      </c>
-      <c r="D70" s="5">
-        <v>2</v>
-      </c>
-      <c r="E70" s="14">
-        <v>880</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" s="5"/>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="6"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="6"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="6"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="6"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="6"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="6"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="7"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="5">
-        <v>10</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="5">
-        <v>1</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="6"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="6"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="7"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="1" t="s">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E78" s="4">
         <v>80390</v>
       </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="G62:G69"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="G70:G77"/>
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="G55:G61"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="F78:F85"/>
-    <mergeCell ref="G78:G85"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="E55:E61"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="G40:G47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="F48:F54"/>
-    <mergeCell ref="G48:G54"/>
+  <mergeCells count="65">
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="F16:F25"/>
+    <mergeCell ref="E16:E25"/>
+    <mergeCell ref="D16:D25"/>
+    <mergeCell ref="C16:C25"/>
+    <mergeCell ref="B16:B25"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="A48:A54"/>
@@ -2117,30 +2018,34 @@
     <mergeCell ref="D40:D47"/>
     <mergeCell ref="C40:C47"/>
     <mergeCell ref="B40:B47"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="F7:F15"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="E7:E15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="F16:F25"/>
-    <mergeCell ref="E16:E25"/>
-    <mergeCell ref="D16:D25"/>
-    <mergeCell ref="C16:C25"/>
-    <mergeCell ref="B16:B25"/>
+    <mergeCell ref="G40:G47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="F48:F54"/>
+    <mergeCell ref="G48:G54"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="G55:G61"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="G70:G77"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="G62:G69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
